--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YangWanjun/Documents/workspace/ebusiness/media/attachment/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AE$4</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>＜経営データ統計表＞</t>
     <rPh sb="1" eb="3">
@@ -245,13 +240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>利益</t>
-    <rPh sb="0" eb="2">
-      <t>リエキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4部</t>
     <rPh sb="1" eb="2">
       <t>ブ</t>
@@ -347,6 +335,52 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>粗利</t>
+    <rPh sb="0" eb="2">
+      <t>アラリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会議費</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交際費</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅費交通費</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通信費</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>租税公課</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消耗品費</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経費合計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業利益</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経費</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -359,7 +393,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,7 +447,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,8 +490,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBA9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -543,13 +583,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,6 +734,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,6 +756,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEBA9FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -970,7 +1061,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -978,50 +1069,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE22"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="8.6640625" style="2"/>
-    <col min="7" max="7" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="8.625" style="2"/>
+    <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.6640625" style="8"/>
-    <col min="16" max="16" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" style="8"/>
-    <col min="18" max="18" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.33203125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="8" customWidth="1"/>
-    <col min="22" max="24" width="8.6640625" style="8"/>
-    <col min="25" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.6640625" style="8"/>
-    <col min="28" max="28" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" style="8" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.6640625" style="8" customWidth="1"/>
-    <col min="32" max="16384" width="8.6640625" style="2"/>
+    <col min="14" max="15" width="8.625" style="8"/>
+    <col min="16" max="16" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.625" style="8"/>
+    <col min="18" max="18" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.375" style="8" customWidth="1"/>
+    <col min="21" max="21" width="9.625" style="8" customWidth="1"/>
+    <col min="22" max="24" width="8.625" style="8"/>
+    <col min="25" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.625" style="8"/>
+    <col min="28" max="28" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10.375" style="8" customWidth="1"/>
+    <col min="31" max="31" width="9.625" style="8" customWidth="1"/>
+    <col min="32" max="39" width="10.375" style="2" customWidth="1"/>
+    <col min="40" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="13.5" customHeight="1">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>9</v>
@@ -1045,7 +1136,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="28"/>
       <c r="S3" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T3" s="30"/>
       <c r="U3" s="31"/>
@@ -1061,10 +1152,22 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="33"/>
       <c r="AE3" s="18" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="AF3" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="18" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="3" customFormat="1" ht="27">
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
@@ -1080,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>6</v>
@@ -1089,7 +1192,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>8</v>
@@ -1113,13 +1216,13 @@
         <v>17</v>
       </c>
       <c r="S4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="V4" s="9" t="s">
         <v>19</v>
@@ -1128,7 +1231,7 @@
         <v>20</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="9" t="s">
         <v>21</v>
@@ -1137,20 +1240,42 @@
         <v>22</v>
       </c>
       <c r="AA4" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="AC4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="AE4" s="17"/>
+      <c r="AF4" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH4" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI4" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ4" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK4" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL4" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM4" s="17"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="B5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
@@ -1158,24 +1283,24 @@
       <c r="C5" s="4"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="13"/>
@@ -1208,8 +1333,22 @@
         <f>T5-SUM(V5:AC5)</f>
         <v>0</v>
       </c>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38">
+        <f>SUM(AF5:AK5)</f>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="38">
+        <f>T5-AD5-AL5</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="B6" s="4">
         <f t="shared" ref="B6:B21" si="0">ROW()-4</f>
         <v>2</v>
@@ -1255,8 +1394,22 @@
         <f t="shared" ref="AE6:AE22" si="4">T6-SUM(V6:AC6)</f>
         <v>0</v>
       </c>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38">
+        <f t="shared" ref="AL6:AL22" si="5">SUM(AF6:AK6)</f>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="38">
+        <f t="shared" ref="AM6:AM22" si="6">T6-AD6-AL6</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1302,8 +1455,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1349,8 +1516,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1396,8 +1577,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1443,8 +1638,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1490,8 +1699,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1537,8 +1760,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1584,8 +1821,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="38"/>
+      <c r="AL13" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1631,8 +1882,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1678,8 +1943,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1725,8 +2004,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:39">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1772,8 +2065,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:39">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1819,8 +2126,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:39">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1866,8 +2187,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:39">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1913,8 +2248,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:39">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1960,8 +2309,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:39">
       <c r="B22" s="4">
         <f>ROW()-4</f>
         <v>18</v>
@@ -2007,6 +2370,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:AE4"/>

--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -10,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AE$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AF$4</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>＜経営データ統計表＞</t>
     <rPh sb="1" eb="3">
@@ -380,6 +380,16 @@
     <t>経費</t>
     <rPh sb="0" eb="2">
       <t>ケイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最寄駅</t>
+    <rPh sb="0" eb="2">
+      <t>モヨリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1061,7 +1071,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1069,9 +1079,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
@@ -1083,31 +1095,31 @@
     <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
     <col min="9" max="9" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.625" style="8"/>
-    <col min="16" max="16" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="8"/>
-    <col min="18" max="18" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.375" style="8" customWidth="1"/>
-    <col min="21" max="21" width="9.625" style="8" customWidth="1"/>
-    <col min="22" max="24" width="8.625" style="8"/>
-    <col min="25" max="25" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.625" style="8"/>
-    <col min="28" max="28" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="10.375" style="8" customWidth="1"/>
-    <col min="31" max="31" width="9.625" style="8" customWidth="1"/>
-    <col min="32" max="39" width="10.375" style="2" customWidth="1"/>
-    <col min="40" max="16384" width="8.625" style="2"/>
+    <col min="11" max="12" width="10.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.625" style="8"/>
+    <col min="17" max="17" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="8"/>
+    <col min="19" max="19" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.375" style="8" customWidth="1"/>
+    <col min="22" max="22" width="9.625" style="8" customWidth="1"/>
+    <col min="23" max="25" width="8.625" style="8"/>
+    <col min="26" max="26" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="8.625" style="8"/>
+    <col min="29" max="29" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.375" style="8" customWidth="1"/>
+    <col min="32" max="32" width="9.625" style="8" customWidth="1"/>
+    <col min="33" max="40" width="10.375" style="2" customWidth="1"/>
+    <col min="41" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="18.75">
+    <row r="1" spans="1:40" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="13.5" customHeight="1">
+    <row r="3" spans="1:40" ht="13.5" customHeight="1">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
@@ -1126,24 +1138,24 @@
         <v>10</v>
       </c>
       <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="27"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="29" t="s">
+      <c r="R3" s="27"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="32" t="s">
+      <c r="U3" s="30"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="33"/>
       <c r="X3" s="33"/>
       <c r="Y3" s="33"/>
       <c r="Z3" s="33"/>
@@ -1151,23 +1163,24 @@
       <c r="AB3" s="33"/>
       <c r="AC3" s="33"/>
       <c r="AD3" s="33"/>
-      <c r="AE3" s="18" t="s">
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="39" t="s">
+      <c r="AG3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="40"/>
       <c r="AH3" s="40"/>
       <c r="AI3" s="40"/>
       <c r="AJ3" s="40"/>
       <c r="AK3" s="40"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="18" t="s">
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="3" customFormat="1" ht="27">
+    <row r="4" spans="1:40" s="3" customFormat="1" ht="27">
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
@@ -1192,90 +1205,93 @@
         <v>7</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="N4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="O4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="P4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="Q4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="R4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="S4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="V4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="34" t="s">
+      <c r="X4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AA4" s="34" t="s">
+      <c r="AB4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="42" t="s">
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AG4" s="42" t="s">
+      <c r="AH4" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="42" t="s">
+      <c r="AI4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AI4" s="42" t="s">
+      <c r="AJ4" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AJ4" s="42" t="s">
+      <c r="AK4" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AK4" s="42" t="s">
+      <c r="AL4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AL4" s="42" t="s">
+      <c r="AM4" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:40">
       <c r="B5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
@@ -1299,11 +1315,11 @@
         <v>27</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
+      <c r="N5" s="12"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
@@ -1317,38 +1333,39 @@
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
-      <c r="AB5" s="13">
-        <f>IF(OR(I5="正社員",I5="契約社員"),INT(SUM(V5:Z5)*0.01),0)</f>
-        <v>0</v>
-      </c>
+      <c r="AB5" s="13"/>
       <c r="AC5" s="13">
-        <f>IF(H5="○",INT(SUM(V5:Z5)*0.14),0)</f>
+        <f>IF(OR(I5="正社員",I5="契約社員"),INT(SUM(W5:AA5)*0.01),0)</f>
         <v>0</v>
       </c>
       <c r="AD5" s="13">
-        <f>SUM(V5:AC5)</f>
+        <f>IF(H5="○",INT(SUM(W5:AA5)*0.14),0)</f>
         <v>0</v>
       </c>
       <c r="AE5" s="13">
-        <f>T5-SUM(V5:AC5)</f>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="38"/>
+        <f>SUM(W5:AD5)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="13">
+        <f>U5-SUM(W5:AD5)</f>
+        <v>0</v>
+      </c>
       <c r="AG5" s="38"/>
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
       <c r="AJ5" s="38"/>
       <c r="AK5" s="38"/>
-      <c r="AL5" s="38">
-        <f>SUM(AF5:AK5)</f>
-        <v>0</v>
-      </c>
+      <c r="AL5" s="38"/>
       <c r="AM5" s="38">
-        <f>T5-AD5-AL5</f>
+        <f>SUM(AG5:AL5)</f>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="38">
+        <f>U5-AE5-AM5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:40">
       <c r="B6" s="4">
         <f t="shared" ref="B6:B21" si="0">ROW()-4</f>
         <v>2</v>
@@ -1363,8 +1380,8 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="10"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="12"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
@@ -1378,38 +1395,39 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
-      <c r="AB6" s="13">
-        <f t="shared" ref="AB6:AB22" si="1">IF(OR(I6="正社員",I6="契約社員"),INT(SUM(V6:Z6)*0.01),0)</f>
-        <v>0</v>
-      </c>
+      <c r="AB6" s="10"/>
       <c r="AC6" s="13">
-        <f t="shared" ref="AC6:AC22" si="2">IF(H6="○",INT(SUM(V6:Z6)*0.14),0)</f>
+        <f t="shared" ref="AC6:AC22" si="1">IF(OR(I6="正社員",I6="契約社員"),INT(SUM(W6:AA6)*0.01),0)</f>
         <v>0</v>
       </c>
       <c r="AD6" s="13">
-        <f t="shared" ref="AD6:AD22" si="3">SUM(V6:AC6)</f>
+        <f t="shared" ref="AD6:AD22" si="2">IF(H6="○",INT(SUM(W6:AA6)*0.14),0)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="13">
-        <f t="shared" ref="AE6:AE22" si="4">T6-SUM(V6:AC6)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="38"/>
+        <f t="shared" ref="AE6:AE22" si="3">SUM(W6:AD6)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="13">
+        <f t="shared" ref="AF6:AF22" si="4">U6-SUM(W6:AD6)</f>
+        <v>0</v>
+      </c>
       <c r="AG6" s="38"/>
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
       <c r="AJ6" s="38"/>
       <c r="AK6" s="38"/>
-      <c r="AL6" s="38">
-        <f t="shared" ref="AL6:AL22" si="5">SUM(AF6:AK6)</f>
-        <v>0</v>
-      </c>
+      <c r="AL6" s="38"/>
       <c r="AM6" s="38">
-        <f t="shared" ref="AM6:AM22" si="6">T6-AD6-AL6</f>
+        <f t="shared" ref="AM6:AM22" si="5">SUM(AG6:AL6)</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="38">
+        <f t="shared" ref="AN6:AN22" si="6">U6-AE6-AM6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:40">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1424,8 +1442,8 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="10"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="12"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
@@ -1439,38 +1457,39 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
-      <c r="AB7" s="13">
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AD7" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AE7" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AF7" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="38"/>
       <c r="AG7" s="38"/>
       <c r="AH7" s="38"/>
       <c r="AI7" s="38"/>
       <c r="AJ7" s="38"/>
       <c r="AK7" s="38"/>
-      <c r="AL7" s="38">
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM7" s="38">
+      <c r="AN7" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:40">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1485,8 +1504,8 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="10"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="12"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
@@ -1500,38 +1519,39 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
-      <c r="AB8" s="13">
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AD8" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AE8" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="AF8" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="38"/>
       <c r="AG8" s="38"/>
       <c r="AH8" s="38"/>
       <c r="AI8" s="38"/>
       <c r="AJ8" s="38"/>
       <c r="AK8" s="38"/>
-      <c r="AL8" s="38">
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM8" s="38">
+      <c r="AN8" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:40">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1546,8 +1566,8 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="10"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="12"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -1561,38 +1581,39 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
-      <c r="AB9" s="13">
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AD9" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AE9" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="13">
+      <c r="AF9" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="38"/>
       <c r="AG9" s="38"/>
       <c r="AH9" s="38"/>
       <c r="AI9" s="38"/>
       <c r="AJ9" s="38"/>
       <c r="AK9" s="38"/>
-      <c r="AL9" s="38">
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM9" s="38">
+      <c r="AN9" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:40">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1607,8 +1628,8 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="10"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="12"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
@@ -1622,38 +1643,39 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
-      <c r="AB10" s="13">
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AD10" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AE10" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="13">
+      <c r="AF10" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="38"/>
       <c r="AG10" s="38"/>
       <c r="AH10" s="38"/>
       <c r="AI10" s="38"/>
       <c r="AJ10" s="38"/>
       <c r="AK10" s="38"/>
-      <c r="AL10" s="38">
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM10" s="38">
+      <c r="AN10" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:40">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1668,8 +1690,8 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="10"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
@@ -1683,38 +1705,39 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
-      <c r="AB11" s="13">
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AD11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="13">
+      <c r="AE11" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="13">
+      <c r="AF11" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="38"/>
       <c r="AG11" s="38"/>
       <c r="AH11" s="38"/>
       <c r="AI11" s="38"/>
       <c r="AJ11" s="38"/>
       <c r="AK11" s="38"/>
-      <c r="AL11" s="38">
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM11" s="38">
+      <c r="AN11" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:40">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1729,8 +1752,8 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="10"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="12"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
@@ -1744,38 +1767,39 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
-      <c r="AB12" s="13">
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AD12" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="13">
+      <c r="AE12" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="13">
+      <c r="AF12" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="38"/>
       <c r="AG12" s="38"/>
       <c r="AH12" s="38"/>
       <c r="AI12" s="38"/>
       <c r="AJ12" s="38"/>
       <c r="AK12" s="38"/>
-      <c r="AL12" s="38">
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM12" s="38">
+      <c r="AN12" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:40">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1790,8 +1814,8 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="10"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="12"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
@@ -1805,38 +1829,39 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
-      <c r="AB13" s="13">
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AD13" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AE13" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="13">
+      <c r="AF13" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="38"/>
       <c r="AG13" s="38"/>
       <c r="AH13" s="38"/>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="38"/>
       <c r="AK13" s="38"/>
-      <c r="AL13" s="38">
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM13" s="38">
+      <c r="AN13" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:40">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1851,8 +1876,8 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="10"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="12"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
@@ -1866,38 +1891,39 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
-      <c r="AB14" s="13">
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="13">
+      <c r="AD14" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="13">
+      <c r="AE14" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="13">
+      <c r="AF14" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="38"/>
       <c r="AG14" s="38"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="38"/>
       <c r="AJ14" s="38"/>
       <c r="AK14" s="38"/>
-      <c r="AL14" s="38">
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM14" s="38">
+      <c r="AN14" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:40">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1912,8 +1938,8 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="10"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="12"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
@@ -1927,38 +1953,39 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
-      <c r="AB15" s="13">
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="13">
+      <c r="AD15" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="13">
+      <c r="AE15" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="13">
+      <c r="AF15" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="38"/>
       <c r="AG15" s="38"/>
       <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
       <c r="AJ15" s="38"/>
       <c r="AK15" s="38"/>
-      <c r="AL15" s="38">
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM15" s="38">
+      <c r="AN15" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:40">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1973,8 +2000,8 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="10"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
@@ -1988,38 +2015,39 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
-      <c r="AB16" s="13">
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="13">
+      <c r="AD16" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="13">
+      <c r="AE16" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="13">
+      <c r="AF16" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="38"/>
       <c r="AG16" s="38"/>
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
       <c r="AJ16" s="38"/>
       <c r="AK16" s="38"/>
-      <c r="AL16" s="38">
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM16" s="38">
+      <c r="AN16" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:39">
+    <row r="17" spans="2:40">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2034,8 +2062,8 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="10"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="12"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
@@ -2049,38 +2077,39 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
-      <c r="AB17" s="13">
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="13">
+      <c r="AD17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="13">
+      <c r="AE17" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="13">
+      <c r="AF17" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="38"/>
       <c r="AG17" s="38"/>
       <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
       <c r="AJ17" s="38"/>
       <c r="AK17" s="38"/>
-      <c r="AL17" s="38">
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM17" s="38">
+      <c r="AN17" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:39">
+    <row r="18" spans="2:40">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2095,8 +2124,8 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="10"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="12"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
@@ -2110,38 +2139,39 @@
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
-      <c r="AB18" s="13">
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="13">
+      <c r="AD18" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="13">
+      <c r="AE18" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="13">
+      <c r="AF18" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="38"/>
       <c r="AG18" s="38"/>
       <c r="AH18" s="38"/>
       <c r="AI18" s="38"/>
       <c r="AJ18" s="38"/>
       <c r="AK18" s="38"/>
-      <c r="AL18" s="38">
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM18" s="38">
+      <c r="AN18" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:39">
+    <row r="19" spans="2:40">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2156,8 +2186,8 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="10"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="12"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
@@ -2171,38 +2201,39 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
-      <c r="AB19" s="13">
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="13">
+      <c r="AD19" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="13">
+      <c r="AE19" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="13">
+      <c r="AF19" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="38"/>
       <c r="AG19" s="38"/>
       <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
       <c r="AJ19" s="38"/>
       <c r="AK19" s="38"/>
-      <c r="AL19" s="38">
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM19" s="38">
+      <c r="AN19" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:39">
+    <row r="20" spans="2:40">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2217,8 +2248,8 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="10"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="12"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
@@ -2232,38 +2263,39 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
-      <c r="AB20" s="13">
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="13">
+      <c r="AD20" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="13">
+      <c r="AE20" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="13">
+      <c r="AF20" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="38"/>
       <c r="AG20" s="38"/>
       <c r="AH20" s="38"/>
       <c r="AI20" s="38"/>
       <c r="AJ20" s="38"/>
       <c r="AK20" s="38"/>
-      <c r="AL20" s="38">
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM20" s="38">
+      <c r="AN20" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:39">
+    <row r="21" spans="2:40">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2278,8 +2310,8 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="10"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="12"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
@@ -2293,38 +2325,39 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
-      <c r="AB21" s="13">
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="13">
+      <c r="AD21" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="13">
+      <c r="AE21" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="13">
+      <c r="AF21" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="38"/>
       <c r="AG21" s="38"/>
       <c r="AH21" s="38"/>
       <c r="AI21" s="38"/>
       <c r="AJ21" s="38"/>
       <c r="AK21" s="38"/>
-      <c r="AL21" s="38">
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM21" s="38">
+      <c r="AN21" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:39">
+    <row r="22" spans="2:40">
       <c r="B22" s="4">
         <f>ROW()-4</f>
         <v>18</v>
@@ -2339,8 +2372,8 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="10"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
@@ -2354,39 +2387,40 @@
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
-      <c r="AB22" s="13">
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="13">
+      <c r="AD22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="13">
+      <c r="AE22" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="13">
+      <c r="AF22" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="38"/>
       <c r="AG22" s="38"/>
       <c r="AH22" s="38"/>
       <c r="AI22" s="38"/>
       <c r="AJ22" s="38"/>
       <c r="AK22" s="38"/>
-      <c r="AL22" s="38">
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM22" s="38">
+      <c r="AN22" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AE4"/>
+  <autoFilter ref="A4:AF4"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
